--- a/US-COVID-Dataset/source/GDP.xlsx
+++ b/US-COVID-Dataset/source/GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakiroy/PythonCodes/Covid/MachineLearning/state_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakiroy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAB88FF-833C-954E-900C-F4C9A48C4D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716BF726-89F6-D846-8DA2-25C75EBA3C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{D84C7468-0816-E941-98F7-FE1969017636}"/>
+    <workbookView xWindow="7460" yWindow="3540" windowWidth="28040" windowHeight="17440" xr2:uid="{D84C7468-0816-E941-98F7-FE1969017636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>State</t>
   </si>
@@ -201,13 +201,16 @@
   </si>
   <si>
     <t>GDPs</t>
+  </si>
+  <si>
+    <t>Percentage Change 2019-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +238,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,13 +267,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -579,22 +590,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7013900A-A1C7-224C-9CC9-10691EFDEB2E}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="33" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +625,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -633,8 +648,11 @@
       <c r="F2" s="4">
         <v>39937489</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G2" s="6">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -653,8 +671,11 @@
       <c r="F3" s="4">
         <v>29472295</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G3" s="6">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -673,8 +694,11 @@
       <c r="F4" s="4">
         <v>19440469</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G4" s="6">
+        <v>-5.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -693,8 +717,11 @@
       <c r="F5" s="4">
         <v>21992985</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G5" s="6">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -713,8 +740,11 @@
       <c r="F6" s="4">
         <v>12659682</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G6" s="6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -733,8 +763,11 @@
       <c r="F7" s="4">
         <v>12820878</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G7" s="6">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -753,8 +786,11 @@
       <c r="F8" s="4">
         <v>11747694</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G8" s="6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -773,8 +809,11 @@
       <c r="F9" s="4">
         <v>8936574</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G9" s="6">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -793,8 +832,11 @@
       <c r="F10" s="4">
         <v>10736059</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G10" s="6">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -813,8 +855,11 @@
       <c r="F11" s="4">
         <v>7797095</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G11" s="6">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -833,8 +878,11 @@
       <c r="F12" s="4">
         <v>6976597</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G12" s="6">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -853,8 +901,11 @@
       <c r="F13" s="4">
         <v>10611862</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G13" s="6">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -873,8 +924,11 @@
       <c r="F14" s="4">
         <v>8626207</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G14" s="6">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -893,8 +947,11 @@
       <c r="F15" s="4">
         <v>10045029</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G15" s="6">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -913,8 +970,11 @@
       <c r="F16" s="4">
         <v>6083116</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G16" s="6">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -933,8 +993,11 @@
       <c r="F17" s="4">
         <v>5845526</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G17" s="6">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -953,8 +1016,11 @@
       <c r="F18" s="4">
         <v>5700671</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G18" s="6">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -973,8 +1039,11 @@
       <c r="F19" s="4">
         <v>6897576</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G19" s="6">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -993,8 +1062,11 @@
       <c r="F20" s="4">
         <v>6745354</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G20" s="6">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1013,8 +1085,11 @@
       <c r="F21" s="4">
         <v>7378494</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G21" s="6">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1108,11 @@
       <c r="F22" s="4">
         <v>5851754</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G22" s="6">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1053,8 +1131,11 @@
       <c r="F23" s="4">
         <v>6169270</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G23" s="6">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1073,8 +1154,11 @@
       <c r="F24" s="4">
         <v>3563077</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G24" s="6">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1093,8 +1177,11 @@
       <c r="F25" s="4">
         <v>4645184</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G25" s="6">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1113,8 +1200,11 @@
       <c r="F26" s="4">
         <v>4301089</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G26" s="6">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1133,8 +1223,11 @@
       <c r="F27" s="4">
         <v>5210095</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G27" s="6">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1153,8 +1246,11 @@
       <c r="F28" s="4">
         <v>4908621</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G28" s="6">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1173,8 +1269,11 @@
       <c r="F29" s="4">
         <v>4499692</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G29" s="6">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1193,8 +1292,11 @@
       <c r="F30" s="4">
         <v>3954821</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G30" s="6">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1213,8 +1315,11 @@
       <c r="F31" s="4">
         <v>3179849</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G31" s="6">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1233,8 +1338,11 @@
       <c r="F32" s="4">
         <v>3282115</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G32" s="6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1253,8 +1361,11 @@
       <c r="F33" s="4">
         <v>2910357</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G33" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1273,8 +1384,11 @@
       <c r="F34" s="4">
         <v>3139658</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G34" s="6">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1293,8 +1407,11 @@
       <c r="F35" s="4">
         <v>3038999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G35" s="6">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1313,8 +1430,11 @@
       <c r="F36" s="4">
         <v>1952570</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G36" s="6">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1333,8 +1453,11 @@
       <c r="F37" s="4">
         <v>2989260</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G37" s="6">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1353,8 +1476,11 @@
       <c r="F38" s="4">
         <v>2096640</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G38" s="6">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1373,8 +1499,11 @@
       <c r="F39" s="4">
         <v>1412687</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G39" s="6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1393,8 +1522,11 @@
       <c r="F40" s="4">
         <v>1371246</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G40" s="6">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -1413,8 +1545,11 @@
       <c r="F41" s="4">
         <v>1778070</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G41" s="6">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -1433,8 +1568,11 @@
       <c r="F42" s="4">
         <v>1826156</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G42" s="6">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -1453,8 +1591,11 @@
       <c r="F43" s="4">
         <v>982895</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G43" s="6">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -1473,8 +1614,11 @@
       <c r="F44" s="4">
         <v>1345790</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G44" s="6">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -1493,8 +1637,11 @@
       <c r="F45" s="4">
         <v>1056161</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G45" s="6">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -1513,8 +1660,11 @@
       <c r="F46" s="4">
         <v>761723</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G46" s="6">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -1533,8 +1683,11 @@
       <c r="F47" s="4">
         <v>734002</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G47" s="6">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -1553,8 +1706,11 @@
       <c r="F48" s="4">
         <v>903027</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G48" s="6">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -1573,8 +1729,11 @@
       <c r="F49" s="4">
         <v>1086759</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G49" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1593,8 +1752,11 @@
       <c r="F50" s="4">
         <v>567025</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G50" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -1612,6 +1774,9 @@
       </c>
       <c r="F51" s="4">
         <v>628061</v>
+      </c>
+      <c r="G51" s="6">
+        <v>-5.4</v>
       </c>
     </row>
   </sheetData>
